--- a/spreadsheets/new/GSE86146.0.xlsx
+++ b/spreadsheets/new/GSE86146.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C563F13A-01A2-AD48-B698-A5E55C4CFD85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25560" windowHeight="14840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="1236">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -3727,13 +3733,16 @@
   </si>
   <si>
     <t>F_14W_embryo1</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3770,6 +3779,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3816,7 +3833,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3848,9 +3865,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3882,6 +3917,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4057,75 +4110,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="132.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="132.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4304,7 +4353,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -4483,7 +4532,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -4641,7 +4690,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4820,12 +4869,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -4848,7 +4897,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -4871,7 +4920,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -4894,7 +4943,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>225</v>
       </c>
@@ -4917,7 +4966,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>230</v>
       </c>
@@ -4940,7 +4989,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>235</v>
       </c>
@@ -4963,7 +5012,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>240</v>
       </c>
@@ -4986,7 +5035,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>245</v>
       </c>
@@ -5009,7 +5058,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -5032,7 +5081,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>255</v>
       </c>
@@ -5055,7 +5104,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>260</v>
       </c>
@@ -5078,7 +5127,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>265</v>
       </c>
@@ -5101,7 +5150,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>270</v>
       </c>
@@ -5124,7 +5173,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>275</v>
       </c>
@@ -5147,7 +5196,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>280</v>
       </c>
@@ -5170,7 +5219,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>285</v>
       </c>
@@ -5193,7 +5242,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>290</v>
       </c>
@@ -5216,7 +5265,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>295</v>
       </c>
@@ -5239,7 +5288,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>300</v>
       </c>
@@ -5262,7 +5311,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>305</v>
       </c>
@@ -5285,7 +5334,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>310</v>
       </c>
@@ -5308,7 +5357,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>315</v>
       </c>
@@ -5331,7 +5380,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>320</v>
       </c>
@@ -5354,7 +5403,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>325</v>
       </c>
@@ -5377,7 +5426,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>330</v>
       </c>
@@ -5400,7 +5449,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>335</v>
       </c>
@@ -5423,7 +5472,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>340</v>
       </c>
@@ -5446,7 +5495,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>345</v>
       </c>
@@ -5469,7 +5518,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>350</v>
       </c>
@@ -5492,7 +5541,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>355</v>
       </c>
@@ -5515,7 +5564,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>360</v>
       </c>
@@ -5538,7 +5587,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>365</v>
       </c>
@@ -5561,7 +5610,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>370</v>
       </c>
@@ -5584,7 +5633,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>375</v>
       </c>
@@ -5607,7 +5656,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>380</v>
       </c>
@@ -5630,7 +5679,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>385</v>
       </c>
@@ -5653,7 +5702,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>390</v>
       </c>
@@ -5676,7 +5725,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>395</v>
       </c>
@@ -5699,7 +5748,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>400</v>
       </c>
@@ -5722,7 +5771,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>405</v>
       </c>
@@ -5745,7 +5794,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>410</v>
       </c>
@@ -5768,7 +5817,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>415</v>
       </c>
@@ -5791,7 +5840,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>420</v>
       </c>
@@ -5820,93 +5869,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>425</v>
       </c>
@@ -6139,7 +6186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -6372,7 +6419,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -6587,7 +6634,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>529</v>
       </c>
@@ -6820,12 +6867,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>590</v>
       </c>
@@ -6845,7 +6892,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>595</v>
       </c>
@@ -6865,7 +6912,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>597</v>
       </c>
@@ -6885,7 +6932,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>599</v>
       </c>
@@ -6905,7 +6952,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>601</v>
       </c>
@@ -6925,7 +6972,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>603</v>
       </c>
@@ -6945,7 +6992,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>605</v>
       </c>
@@ -6965,7 +7012,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>607</v>
       </c>
@@ -6985,7 +7032,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>608</v>
       </c>
@@ -7005,7 +7052,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="15" spans="1:77">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>610</v>
       </c>
@@ -7025,7 +7072,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>611</v>
       </c>
@@ -7045,7 +7092,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>613</v>
       </c>
@@ -7065,7 +7112,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>614</v>
       </c>
@@ -7085,7 +7132,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>616</v>
       </c>
@@ -7105,7 +7152,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>617</v>
       </c>
@@ -7125,7 +7172,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>619</v>
       </c>
@@ -7145,7 +7192,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>622</v>
       </c>
@@ -7165,7 +7212,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>625</v>
       </c>
@@ -7185,7 +7232,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>626</v>
       </c>
@@ -7205,7 +7252,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>627</v>
       </c>
@@ -7225,7 +7272,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>628</v>
       </c>
@@ -7245,7 +7292,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>630</v>
       </c>
@@ -7265,7 +7312,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>631</v>
       </c>
@@ -7285,7 +7332,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>632</v>
       </c>
@@ -7305,7 +7352,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>634</v>
       </c>
@@ -7325,7 +7372,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>635</v>
       </c>
@@ -7345,7 +7392,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>636</v>
       </c>
@@ -7371,67 +7418,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="376.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="376.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>638</v>
       </c>
@@ -7586,7 +7631,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -7741,7 +7786,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -7890,7 +7935,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>739</v>
       </c>
@@ -8045,12 +8090,12 @@
         <v>789</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>790</v>
       </c>
@@ -8067,25 +8112,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1070.7109375" customWidth="1"/>
-    <col min="4" max="4" width="135.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1070.6640625" customWidth="1"/>
+    <col min="4" max="4" width="135.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>793</v>
       </c>
@@ -8114,7 +8158,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>802</v>
       </c>
@@ -8143,7 +8187,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>811</v>
       </c>
@@ -8172,7 +8216,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>820</v>
       </c>
@@ -8201,12 +8245,12 @@
         <v>828</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>829</v>
       </c>
@@ -8232,28 +8276,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>835</v>
       </c>
@@ -8291,7 +8335,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>847</v>
       </c>
@@ -8329,7 +8373,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>857</v>
       </c>
@@ -8367,7 +8411,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>868</v>
       </c>
@@ -8405,12 +8449,12 @@
         <v>879</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>880</v>
       </c>
@@ -8433,21 +8477,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>885</v>
       </c>
@@ -8464,7 +8508,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>889</v>
       </c>
@@ -8481,7 +8525,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>894</v>
       </c>
@@ -8498,7 +8542,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>899</v>
       </c>
@@ -8515,12 +8559,12 @@
         <v>903</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>904</v>
       </c>
@@ -8531,46 +8575,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>905</v>
       </c>
@@ -8662,7 +8704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>917</v>
       </c>
@@ -8754,7 +8796,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>926</v>
       </c>
@@ -8834,7 +8876,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>936</v>
       </c>
@@ -8926,12 +8968,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>948</v>
       </c>
@@ -8954,7 +8996,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>953</v>
       </c>
@@ -8977,7 +9019,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>955</v>
       </c>
@@ -9000,7 +9042,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>957</v>
       </c>
@@ -9023,7 +9065,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>958</v>
       </c>
@@ -9046,7 +9088,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>960</v>
       </c>
@@ -9069,7 +9111,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>961</v>
       </c>
@@ -9092,7 +9134,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>963</v>
       </c>
@@ -9115,7 +9157,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>964</v>
       </c>
@@ -9138,7 +9180,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>966</v>
       </c>
@@ -9161,7 +9203,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>967</v>
       </c>
@@ -9184,7 +9226,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>969</v>
       </c>
@@ -9207,7 +9249,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>970</v>
       </c>
@@ -9230,7 +9272,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>972</v>
       </c>
@@ -9253,7 +9295,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>973</v>
       </c>
@@ -9276,7 +9318,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>975</v>
       </c>
@@ -9299,7 +9341,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>976</v>
       </c>
@@ -9322,7 +9364,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>978</v>
       </c>
@@ -9345,7 +9387,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>979</v>
       </c>
@@ -9368,7 +9410,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>981</v>
       </c>
@@ -9391,7 +9433,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>982</v>
       </c>
@@ -9414,7 +9456,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>984</v>
       </c>
@@ -9437,7 +9479,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>985</v>
       </c>
@@ -9460,7 +9502,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>987</v>
       </c>
@@ -9483,7 +9525,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>988</v>
       </c>
@@ -9506,7 +9548,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>990</v>
       </c>
@@ -9529,7 +9571,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>991</v>
       </c>
@@ -9552,7 +9594,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>993</v>
       </c>
@@ -9575,7 +9617,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>994</v>
       </c>
@@ -9598,7 +9640,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>996</v>
       </c>
@@ -9621,7 +9663,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>997</v>
       </c>
@@ -9644,7 +9686,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>999</v>
       </c>
@@ -9667,7 +9709,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1000</v>
       </c>
@@ -9690,7 +9732,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1002</v>
       </c>
@@ -9713,7 +9755,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1003</v>
       </c>
@@ -9736,7 +9778,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1005</v>
       </c>
@@ -9759,7 +9801,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1006</v>
       </c>
@@ -9782,7 +9824,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1008</v>
       </c>
@@ -9805,7 +9847,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1009</v>
       </c>
@@ -9828,7 +9870,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1011</v>
       </c>
@@ -9851,7 +9893,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1012</v>
       </c>
@@ -9874,7 +9916,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1014</v>
       </c>
@@ -9897,7 +9939,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1015</v>
       </c>
@@ -9920,7 +9962,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1017</v>
       </c>
@@ -9943,7 +9985,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1018</v>
       </c>
@@ -9966,7 +10008,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1020</v>
       </c>
@@ -9989,7 +10031,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1021</v>
       </c>
@@ -10012,7 +10054,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1023</v>
       </c>
@@ -10035,7 +10077,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1024</v>
       </c>
@@ -10058,7 +10100,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1026</v>
       </c>
@@ -10081,7 +10123,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1027</v>
       </c>
@@ -10104,7 +10146,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1029</v>
       </c>
@@ -10127,7 +10169,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1030</v>
       </c>
@@ -10150,7 +10192,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1032</v>
       </c>
@@ -10173,7 +10215,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1033</v>
       </c>
@@ -10196,7 +10238,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1035</v>
       </c>
@@ -10219,7 +10261,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1036</v>
       </c>
@@ -10242,7 +10284,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1038</v>
       </c>
@@ -10265,7 +10307,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1039</v>
       </c>
@@ -10288,7 +10330,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1041</v>
       </c>
@@ -10311,7 +10353,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1042</v>
       </c>
@@ -10334,7 +10376,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1044</v>
       </c>
@@ -10357,7 +10399,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1045</v>
       </c>
@@ -10380,7 +10422,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1047</v>
       </c>
@@ -10403,7 +10445,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1048</v>
       </c>
@@ -10426,7 +10468,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1050</v>
       </c>
@@ -10449,7 +10491,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1051</v>
       </c>
@@ -10472,7 +10514,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1053</v>
       </c>
@@ -10495,7 +10537,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1054</v>
       </c>
@@ -10518,7 +10560,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1056</v>
       </c>
@@ -10541,7 +10583,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1057</v>
       </c>
@@ -10564,7 +10606,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1059</v>
       </c>
@@ -10587,7 +10629,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1060</v>
       </c>
@@ -10610,7 +10652,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1062</v>
       </c>
@@ -10633,7 +10675,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1063</v>
       </c>
@@ -10656,7 +10698,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1065</v>
       </c>
@@ -10679,7 +10721,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1066</v>
       </c>
@@ -10702,7 +10744,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1068</v>
       </c>
@@ -10725,7 +10767,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1069</v>
       </c>
@@ -10748,7 +10790,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1071</v>
       </c>
@@ -10771,7 +10813,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1072</v>
       </c>
@@ -10794,7 +10836,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1074</v>
       </c>
@@ -10817,7 +10859,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1075</v>
       </c>
@@ -10840,7 +10882,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1077</v>
       </c>
@@ -10863,7 +10905,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1078</v>
       </c>
@@ -10886,7 +10928,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1080</v>
       </c>
@@ -10915,34 +10957,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="784.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="784.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>916</v>
       </c>
@@ -10998,7 +11042,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -11054,7 +11098,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -11104,7 +11148,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>947</v>
       </c>
@@ -11160,12 +11204,12 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>952</v>
       </c>
@@ -11174,6 +11218,9 @@
       </c>
       <c r="G6" t="s">
         <v>1128</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1235</v>
       </c>
     </row>
   </sheetData>
@@ -11182,76 +11229,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -11433,7 +11477,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -11615,7 +11659,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -11776,7 +11820,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -11958,12 +12002,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -11977,7 +12021,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>219</v>
       </c>
@@ -11991,7 +12035,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>224</v>
       </c>
@@ -12005,7 +12049,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>229</v>
       </c>
@@ -12019,7 +12063,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>234</v>
       </c>
@@ -12033,7 +12077,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -12047,7 +12091,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>244</v>
       </c>
@@ -12061,7 +12105,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -12075,7 +12119,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>254</v>
       </c>
@@ -12089,7 +12133,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>259</v>
       </c>
@@ -12103,7 +12147,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>264</v>
       </c>
@@ -12117,7 +12161,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>269</v>
       </c>
@@ -12131,7 +12175,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>274</v>
       </c>
@@ -12145,7 +12189,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -12159,7 +12203,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>284</v>
       </c>
@@ -12173,7 +12217,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>289</v>
       </c>
@@ -12187,7 +12231,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>294</v>
       </c>
@@ -12201,7 +12245,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>299</v>
       </c>
@@ -12215,7 +12259,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>304</v>
       </c>
@@ -12229,7 +12273,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>309</v>
       </c>
@@ -12243,7 +12287,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>314</v>
       </c>
@@ -12257,7 +12301,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>319</v>
       </c>
@@ -12271,7 +12315,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>324</v>
       </c>
@@ -12285,7 +12329,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>329</v>
       </c>
@@ -12299,7 +12343,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>334</v>
       </c>
@@ -12313,7 +12357,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>339</v>
       </c>
@@ -12327,7 +12371,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>344</v>
       </c>
@@ -12341,7 +12385,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>349</v>
       </c>
@@ -12355,7 +12399,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>354</v>
       </c>
@@ -12369,7 +12413,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>359</v>
       </c>
@@ -12383,7 +12427,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>364</v>
       </c>
@@ -12397,7 +12441,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>369</v>
       </c>
@@ -12411,7 +12455,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>374</v>
       </c>
@@ -12425,7 +12469,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>379</v>
       </c>
@@ -12439,7 +12483,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>384</v>
       </c>
@@ -12453,7 +12497,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>389</v>
       </c>
@@ -12467,7 +12511,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>394</v>
       </c>
@@ -12481,7 +12525,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>399</v>
       </c>
@@ -12495,7 +12539,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>404</v>
       </c>
@@ -12509,7 +12553,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>409</v>
       </c>
@@ -12523,7 +12567,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>414</v>
       </c>
@@ -12537,7 +12581,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>419</v>
       </c>
@@ -12551,7 +12595,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>424</v>
       </c>
